--- a/docs/zh-Hans/SilencerAtlas/SilencerAtlas数据库导入文件设计.xlsx
+++ b/docs/zh-Hans/SilencerAtlas/SilencerAtlas数据库导入文件设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\Django-backend\docs\zh-Hans\SilencerAtlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788039A0-7CB6-4E2D-ABDE-68CED93F60A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B769000F-C9F2-436A-867E-F664D33D4A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>Silencer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,14 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总说明：
-1.所有限定值的部分是为了代码清晰、一一对应、方便调用（尤其是到网页上，有一套确定规范的命名可以避免很多不必要的多次修改，比如encode、Encode、ENCODE变量名称互不相同写起来容易出错），限定值在数据库中是key-value的形式存在，可以发现key全部都是小写下划线形式，这是Python命名规范，key并非在网页上真实展示的文字，value才是，这样可以方便的进行页面上的修改，后续也可以继续添加。但是假设没有按照限定值，数据库存入的时候不会报错，但是页面就可能不会按照预期展示。
-2.silencer表字段并非最终设计，后续还可以继续添加
-3.对于Genes、TFBs、SNPs、Recognition Factors、Cas9中的数据都以英文分号分隔一个数据，尽量不要使用中文分号，多余的分号，虽然程序中已经考虑到这种情况做出了处理
-4.对于区域或者位点统一设置了格式为：chr:start-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,10 +176,6 @@
   </si>
   <si>
     <t>CRISPRs/Cas9s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+或者-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -213,10 +201,6 @@
       </rPr>
       <t>因为位点中有冒号了，所以只有这一列是用~代替:</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>samples_z_score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -267,6 +251,41 @@
   </si>
   <si>
     <t>silencer_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>samples_recognition_factors_z_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""（即空字符）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+、-、.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总说明：
+1.列名中红色部分是必须有的字段
+字段顺序可以不用按表格顺序排列，但是这样会比较清晰明了
+默认值是不必须字段的值
+所有限定值的部分是为了代码清晰、一一对应、方便调用（尤其是到网页上，有一套确定规范的命名可以避免很多不必要的多次修改，比如encode、Encode、ENCODE变量名称互不相同写起来容易出错），限定值在数据库中是key-value的形式存在，可以发现key全部都是小写下划线形式，这是Python命名规范，key并非在网页上真实展示的文字，value才是，这样可以方便的进行页面上的修改，后续也可以继续添加。但是假设没有按照限定值，数据库存入的时候不会报错，但是页面就可能不会按照预期展示。
+2.silencer表字段并非最终设计，后续还可以继续添加
+3.对于Genes、TFBs、SNPs、Recognition Factors、Cas9中的数据都以英文分号分隔一个数据，尽量不要使用中文分号，多余的分号，虽然程序中已经考虑到这种情况做出了处理
+4.对于区域或者位点统一设置了格式为：chr:start-end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -426,6 +445,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -445,6 +467,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -727,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -754,52 +779,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
       <c r="O2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>12</v>
@@ -807,35 +832,35 @@
       <c r="Q2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="11"/>
+      <c r="S2" s="12"/>
       <c r="T2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>5</v>
@@ -843,23 +868,23 @@
       <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>33</v>
+      <c r="M3" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>12</v>
@@ -868,148 +893,174 @@
         <v>13</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>19</v>
+      <c r="A4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="103.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="103.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="3" t="s">
+      <c r="S6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T5" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="186.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="15"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+    <row r="7" spans="1:20" ht="186.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="16"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B8" s="2"/>
@@ -1031,11 +1082,31 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:N2"/>
-    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A7:T7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="R2:S2"/>
   </mergeCells>

--- a/docs/zh-Hans/SilencerAtlas/SilencerAtlas数据库导入文件设计.xlsx
+++ b/docs/zh-Hans/SilencerAtlas/SilencerAtlas数据库导入文件设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\Django-backend\docs\zh-Hans\SilencerAtlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B769000F-C9F2-436A-867E-F664D33D4A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4639B8-C09B-4377-B1C1-97B44030C2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Silencer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,14 +278,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>human</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>总说明：
 1.列名中红色部分是必须有的字段
-字段顺序可以不用按表格顺序排列，但是这样会比较清晰明了
-默认值是不必须字段的值
-所有限定值的部分是为了代码清晰、一一对应、方便调用（尤其是到网页上，有一套确定规范的命名可以避免很多不必要的多次修改，比如encode、Encode、ENCODE变量名称互不相同写起来容易出错），限定值在数据库中是key-value的形式存在，可以发现key全部都是小写下划线形式，这是Python命名规范，key并非在网页上真实展示的文字，value才是，这样可以方便的进行页面上的修改，后续也可以继续添加。但是假设没有按照限定值，数据库存入的时候不会报错，但是页面就可能不会按照预期展示。
-2.silencer表字段并非最终设计，后续还可以继续添加
-3.对于Genes、TFBs、SNPs、Recognition Factors、Cas9中的数据都以英文分号分隔一个数据，尽量不要使用中文分号，多余的分号，虽然程序中已经考虑到这种情况做出了处理
-4.对于区域或者位点统一设置了格式为：chr:start-end</t>
+2.字段顺序可以不用按表格顺序排列，但是这样会比较清晰明了
+3.默认值是不必须字段的值
+4.所有限定值的部分是为了代码清晰、一一对应、方便调用（尤其是到网页上，有一套确定规范的命名可以避免很多不必要的多次修改，比如encode、Encode、ENCODE变量名称互不相同写起来容易出错），限定值在数据库中是key-value的形式存在，可以发现key全部都是小写下划线形式，这是Python命名规范，key并非在网页上真实展示的文字，value才是，这样可以方便的进行页面上的修改，后续也可以继续添加。但是假设没有按照限定值，数据库存入的时候不会报错，但是页面就可能不会按照预期展示。
+5.表字段并非最终设计，后续还可以继续添加
+6.对于Genes、TFBs、SNPs、Recognition Factors、Cas9中的数据都以英文分号分隔一个数据，尽量不要使用中文分号，多余的分号，虽然程序中已经考虑到这种情况做出了处理
+7.对于区域或者位点统一设置了格式为：chr:start-end，如果':'或者'-'冲突会更改其他部分，而不是更改区域格式（如TFBs字段）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +340,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -418,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -445,6 +455,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -469,7 +482,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -779,50 +792,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
       <c r="O2" s="3" t="s">
         <v>33</v>
       </c>
@@ -832,10 +845,10 @@
       <c r="Q2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="12"/>
+      <c r="S2" s="13"/>
       <c r="T2" s="5" t="s">
         <v>37</v>
       </c>
@@ -844,19 +857,19 @@
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -868,16 +881,16 @@
       <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="19" t="s">
         <v>32</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -906,13 +919,13 @@
       <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="9" t="s">
         <v>52</v>
       </c>
@@ -922,10 +935,12 @@
       <c r="I4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>51</v>
       </c>
@@ -1039,28 +1054,28 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="186.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="16"/>
+      <c r="A7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="17"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B8" s="2"/>

--- a/docs/zh-Hans/SilencerAtlas/SilencerAtlas数据库导入文件设计.xlsx
+++ b/docs/zh-Hans/SilencerAtlas/SilencerAtlas数据库导入文件设计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\Django-backend\docs\zh-Hans\SilencerAtlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4639B8-C09B-4377-B1C1-97B44030C2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A3B890-96DE-484A-953E-EA84621828D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gene_name:strategy;……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>region;……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>以基因名称:策略的键值对为一个数据，分号分隔多个数据。策略限定值为：closest、overlap、abc_model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>species</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,10 +172,6 @@
   </si>
   <si>
     <t>相关表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gene_name~binding_site;……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -290,6 +278,18 @@
 5.表字段并非最终设计，后续还可以继续添加
 6.对于Genes、TFBs、SNPs、Recognition Factors、Cas9中的数据都以英文分号分隔一个数据，尽量不要使用中文分号，多余的分号，虽然程序中已经考虑到这种情况做出了处理
 7.对于区域或者位点统一设置了格式为：chr:start-end，如果':'或者'-'冲突会更改其他部分，而不是更改区域格式（如TFBs字段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gene_namebinding_site;……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gene_name~gene_ensembl_id~genomic_loci~distance_to_TSS:strategy.sub_strategy;……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以基因名称~基因enseml_id~基因位点~距离TSS的距离:策略.子策略的键值对为一个数据，分号分隔多个数据。策略限定值为：closest、overlap、abc_model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,6 +458,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -480,9 +483,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:T7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -783,7 +783,7 @@
     <col min="12" max="12" width="17.75" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="15" width="26" style="1" customWidth="1"/>
+    <col min="15" max="15" width="40.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="29.25" style="1" customWidth="1"/>
     <col min="17" max="17" width="21.875" style="1" customWidth="1"/>
     <col min="18" max="19" width="36.875" style="1" customWidth="1"/>
@@ -792,52 +792,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
       <c r="O2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>12</v>
@@ -845,23 +845,23 @@
       <c r="Q2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="13"/>
+      <c r="S2" s="14"/>
       <c r="T2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>2</v>
@@ -873,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>5</v>
@@ -890,14 +890,14 @@
       <c r="L3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>32</v>
+      <c r="M3" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>12</v>
@@ -906,66 +906,66 @@
         <v>13</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="19" t="s">
-        <v>54</v>
+      <c r="M4" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="8"/>
@@ -973,7 +973,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -983,22 +983,22 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="R5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="T5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="103.5" x14ac:dyDescent="0.4">
@@ -1008,74 +1008,74 @@
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="I6" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="T6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="186.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="17"/>
+      <c r="A7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="18"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B8" s="2"/>
